--- a/files/mau_phieu_thu.xlsx
+++ b/files/mau_phieu_thu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\sticker\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="-75" windowWidth="22995" windowHeight="9375"/>
+    <workbookView xWindow="-3192" yWindow="-72" windowWidth="22992" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$W$28:$AA$191</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="789">
   <si>
     <t>Viết bằng chữ:</t>
   </si>
@@ -2377,58 +2377,73 @@
     <t>01687.306.192</t>
   </si>
   <si>
-    <t>Ngày   tháng    năm 2017</t>
-  </si>
-  <si>
-    <t>${Họ tên người nộp tiền;text}</t>
-  </si>
-  <si>
-    <t>${Mã khách hàng;text}</t>
-  </si>
-  <si>
-    <t>${Số điện thoại;number}</t>
-  </si>
-  <si>
-    <t>${Địa chỉ;text}</t>
-  </si>
-  <si>
-    <t>$(Đơn giá;text)</t>
-  </si>
-  <si>
-    <t>$(Tên sản phẩm;text)</t>
-  </si>
-  <si>
-    <t>$(Tổng tiền;text)</t>
-  </si>
-  <si>
-    <t>$(Thành tiền;text)</t>
-  </si>
-  <si>
-    <t>$(Số lượng;number)</t>
-  </si>
-  <si>
-    <t>${Còn phải thanh toán;text}</t>
-  </si>
-  <si>
-    <t>${Mã số phiếu;text}</t>
-  </si>
-  <si>
-    <t>${Khách hàng;text}</t>
-  </si>
-  <si>
-    <t>$(Tổng thanh toán;text)</t>
-  </si>
-  <si>
-    <t>${Tạm ứng;text}</t>
-  </si>
-  <si>
-    <t>${Viết bằng chữ;text}</t>
+    <t>${ma_phieu}</t>
+  </si>
+  <si>
+    <t>${ma_khachhang}</t>
+  </si>
+  <si>
+    <t>${dia_chi}</t>
+  </si>
+  <si>
+    <t>${so_dien_thoai}</t>
+  </si>
+  <si>
+    <t>${tam_ung}</t>
+  </si>
+  <si>
+    <t>${con_lai}</t>
+  </si>
+  <si>
+    <t>${ten_nguoinop}</t>
+  </si>
+  <si>
+    <t>${ten_khachhang}</t>
+  </si>
+  <si>
+    <t>${bang_chu}</t>
+  </si>
+  <si>
+    <t>${ten_san_pham}</t>
+  </si>
+  <si>
+    <t>${don_gia}</t>
+  </si>
+  <si>
+    <t>${so_luong}</t>
+  </si>
+  <si>
+    <t>${tien}</t>
+  </si>
+  <si>
+    <t>${don_vi}</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>${ngay}</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>${thang}</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>${nam}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày   tháng  năm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10484]dd/mm/yyyy;@"/>
   </numFmts>
@@ -3021,9 +3036,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3178,56 +3190,41 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -3260,34 +3257,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3742,159 +3757,159 @@
   <dimension ref="A1:AA279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:L18"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="6" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="16" style="8" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="10" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="6.796875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" style="9" customWidth="1"/>
     <col min="13" max="13" width="9" style="9" customWidth="1"/>
-    <col min="14" max="22" width="9.125" style="8"/>
-    <col min="23" max="23" width="22.75" style="8" customWidth="1"/>
-    <col min="24" max="24" width="71.625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="79.375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="22.625" style="28" customWidth="1"/>
-    <col min="27" max="27" width="22.625" style="37" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="8"/>
+    <col min="14" max="22" width="9.09765625" style="8"/>
+    <col min="23" max="23" width="22.69921875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="71.59765625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="79.3984375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="22.59765625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="22.59765625" style="36" customWidth="1"/>
+    <col min="28" max="16384" width="9.09765625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="14"/>
       <c r="E1" s="14"/>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
       <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27" ht="27" x14ac:dyDescent="0.2">
-      <c r="B2" s="114" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-    </row>
-    <row r="3" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="113" t="s">
-        <v>768</v>
-      </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="115" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="107" t="s">
+        <v>788</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+    </row>
+    <row r="4" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="8" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="114" t="s">
         <v>771</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+    </row>
+    <row r="5" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="121" t="s">
-        <v>770</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="115" t="s">
+        <v>769</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
       <c r="S5" s="8" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="116" t="s">
+    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="118" t="s">
-        <v>780</v>
-      </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="115" t="s">
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="112" t="s">
+        <v>775</v>
+      </c>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="117" t="s">
-        <v>772</v>
-      </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-    </row>
-    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="111" t="s">
+        <v>770</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+    </row>
+    <row r="8" spans="2:27" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3908,281 +3923,292 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="25" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97" t="s">
+      <c r="K9" s="130"/>
+      <c r="L9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
-      <c r="C10" s="111" t="s">
-        <v>774</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="95" t="s">
+      <c r="C10" s="128" t="s">
         <v>777</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96" t="s">
-        <v>776</v>
-      </c>
-      <c r="M10" s="96"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="J10" s="129" t="s">
+        <v>779</v>
+      </c>
+      <c r="K10" s="129"/>
+      <c r="L10" s="121" t="s">
+        <v>780</v>
+      </c>
+      <c r="M10" s="121"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:27" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="92"/>
-      <c r="Z11" s="91"/>
-    </row>
-    <row r="12" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="102" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="91"/>
+      <c r="Z11" s="90"/>
+    </row>
+    <row r="12" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="101" t="s">
-        <v>775</v>
-      </c>
-      <c r="M12" s="101"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="118" t="s">
+        <v>780</v>
+      </c>
+      <c r="M12" s="118"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="102" t="s">
+    <row r="13" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="101">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="118">
         <v>0</v>
       </c>
-      <c r="M13" s="101"/>
+      <c r="M13" s="118"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="102" t="s">
+    <row r="14" spans="2:27" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="101" t="s">
-        <v>781</v>
-      </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="35"/>
-      <c r="Z14" s="36"/>
-    </row>
-    <row r="15" spans="2:27" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118" t="s">
+        <v>780</v>
+      </c>
+      <c r="M14" s="118"/>
+      <c r="N14" s="34"/>
+      <c r="Z14" s="35"/>
+    </row>
+    <row r="15" spans="2:27" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="38"/>
-    </row>
-    <row r="16" spans="2:27" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="123" t="s">
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="2:27" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="102" t="s">
         <v>710</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124" t="s">
-        <v>782</v>
-      </c>
-      <c r="M16" s="125"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="38"/>
-    </row>
-    <row r="17" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="123" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103" t="s">
+        <v>772</v>
+      </c>
+      <c r="M16" s="104"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="37"/>
+    </row>
+    <row r="17" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="102" t="s">
         <v>711</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124" t="s">
-        <v>778</v>
-      </c>
-      <c r="M17" s="125"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="38"/>
-    </row>
-    <row r="18" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="126" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103" t="s">
+        <v>773</v>
+      </c>
+      <c r="M17" s="104"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="37"/>
+    </row>
+    <row r="18" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="110" t="s">
-        <v>783</v>
-      </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="98" t="s">
+        <v>776</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="7"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="38"/>
-    </row>
-    <row r="19" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="104" t="s">
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="37"/>
+    </row>
+    <row r="19" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="38"/>
-    </row>
-    <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="100" t="str">
-        <f>B3</f>
-        <v>Ngày   tháng    năm 2017</v>
-      </c>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-    </row>
-    <row r="21" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="110" t="s">
+      <c r="H20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I20" s="94" t="s">
+        <v>783</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>784</v>
+      </c>
+      <c r="K20" s="94" t="s">
+        <v>785</v>
+      </c>
+      <c r="L20" s="94" t="s">
+        <v>786</v>
+      </c>
+      <c r="M20" s="131" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="110"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="131" t="s">
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-    </row>
-    <row r="22" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="129" t="s">
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="129"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="128" t="s">
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-    </row>
-    <row r="23" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+    </row>
+    <row r="23" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4196,7 +4222,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4210,7 +4236,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4224,37 +4250,37 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-    </row>
-    <row r="27" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
+    <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+    </row>
+    <row r="27" spans="1:27" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="2"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
       <c r="M27" s="1"/>
-      <c r="W27" s="99" t="s">
+      <c r="W27" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-    </row>
-    <row r="28" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+    </row>
+    <row r="28" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W28" s="22" t="s">
         <v>18</v>
       </c>
@@ -4267,11 +4293,11 @@
       <c r="Z28" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AA28" s="39" t="s">
+      <c r="AA28" s="38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W29" s="21" t="s">
         <v>20</v>
       </c>
@@ -4281,10 +4307,10 @@
       <c r="Y29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="40"/>
-    </row>
-    <row r="30" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="39"/>
+    </row>
+    <row r="30" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W30" s="20" t="s">
         <v>26</v>
       </c>
@@ -4294,10 +4320,10 @@
       <c r="Y30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="40"/>
-    </row>
-    <row r="31" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="39"/>
+    </row>
+    <row r="31" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W31" s="20" t="s">
         <v>30</v>
       </c>
@@ -4307,10 +4333,10 @@
       <c r="Y31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="40"/>
-    </row>
-    <row r="32" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="39"/>
+    </row>
+    <row r="32" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W32" s="20" t="s">
         <v>33</v>
       </c>
@@ -4320,10 +4346,10 @@
       <c r="Y32" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="40"/>
-    </row>
-    <row r="33" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="39"/>
+    </row>
+    <row r="33" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W33" s="20" t="s">
         <v>36</v>
       </c>
@@ -4333,10 +4359,10 @@
       <c r="Y33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="40"/>
-    </row>
-    <row r="34" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="39"/>
+    </row>
+    <row r="34" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W34" s="20" t="s">
         <v>39</v>
       </c>
@@ -4346,10 +4372,10 @@
       <c r="Y34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="40"/>
-    </row>
-    <row r="35" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="39"/>
+    </row>
+    <row r="35" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W35" s="20" t="s">
         <v>43</v>
       </c>
@@ -4357,10 +4383,10 @@
         <v>42</v>
       </c>
       <c r="Y35" s="20"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="40"/>
-    </row>
-    <row r="36" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="39"/>
+    </row>
+    <row r="36" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W36" s="20" t="s">
         <v>44</v>
       </c>
@@ -4370,10 +4396,10 @@
       <c r="Y36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="40"/>
-    </row>
-    <row r="37" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="39"/>
+    </row>
+    <row r="37" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W37" s="20" t="s">
         <v>46</v>
       </c>
@@ -4383,10 +4409,10 @@
       <c r="Y37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="40"/>
-    </row>
-    <row r="38" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="39"/>
+    </row>
+    <row r="38" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W38" s="20" t="s">
         <v>49</v>
       </c>
@@ -4396,10 +4422,10 @@
       <c r="Y38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="40"/>
-    </row>
-    <row r="39" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="39"/>
+    </row>
+    <row r="39" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W39" s="20" t="s">
         <v>52</v>
       </c>
@@ -4409,10 +4435,10 @@
       <c r="Y39" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="40"/>
-    </row>
-    <row r="40" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="39"/>
+    </row>
+    <row r="40" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W40" s="20" t="s">
         <v>57</v>
       </c>
@@ -4422,14 +4448,14 @@
       <c r="Y40" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Z40" s="30" t="s">
+      <c r="Z40" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AA40" s="40" t="s">
+      <c r="AA40" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W41" s="20" t="s">
         <v>62</v>
       </c>
@@ -4439,10 +4465,10 @@
       <c r="Y41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="34"/>
-    </row>
-    <row r="42" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="33"/>
+    </row>
+    <row r="42" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W42" s="20" t="s">
         <v>65</v>
       </c>
@@ -4452,31 +4478,31 @@
       <c r="Y42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Z42" s="31" t="s">
+      <c r="Z42" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AA42" s="34" t="s">
+      <c r="AA42" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="X43" s="32" t="s">
+      <c r="X43" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Y43" s="32" t="s">
+      <c r="Y43" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Z43" s="31" t="s">
+      <c r="Z43" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AA43" s="34" t="s">
+      <c r="AA43" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W44" s="20" t="s">
         <v>74</v>
       </c>
@@ -4486,31 +4512,31 @@
       <c r="Y44" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="Z44" s="31" t="s">
+      <c r="Z44" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AA44" s="34">
+      <c r="AA44" s="33">
         <v>903738733</v>
       </c>
     </row>
-    <row r="45" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W45" s="20" t="s">
         <v>78</v>
       </c>
       <c r="X45" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="Y45" s="33" t="s">
+      <c r="Y45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Z45" s="31" t="s">
+      <c r="Z45" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="AA45" s="34" t="s">
+      <c r="AA45" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W46" s="20" t="s">
         <v>83</v>
       </c>
@@ -4520,14 +4546,14 @@
       <c r="Y46" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Z46" s="31" t="s">
+      <c r="Z46" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AA46" s="34" t="s">
+      <c r="AA46" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W47" s="20" t="s">
         <v>89</v>
       </c>
@@ -4537,14 +4563,14 @@
       <c r="Y47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Z47" s="31" t="s">
+      <c r="Z47" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="AA47" s="34" t="s">
+      <c r="AA47" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W48" s="20" t="s">
         <v>97</v>
       </c>
@@ -4554,14 +4580,14 @@
       <c r="Y48" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="Z48" s="31" t="s">
+      <c r="Z48" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="AA48" s="34">
+      <c r="AA48" s="33">
         <v>902481191</v>
       </c>
     </row>
-    <row r="49" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W49" s="20" t="s">
         <v>98</v>
       </c>
@@ -4571,14 +4597,14 @@
       <c r="Y49" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="Z49" s="31" t="s">
+      <c r="Z49" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="AA49" s="34" t="s">
+      <c r="AA49" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W50" s="20" t="s">
         <v>102</v>
       </c>
@@ -4588,14 +4614,14 @@
       <c r="Y50" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Z50" s="31" t="s">
+      <c r="Z50" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AA50" s="34" t="s">
+      <c r="AA50" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W51" s="20" t="s">
         <v>107</v>
       </c>
@@ -4605,14 +4631,14 @@
       <c r="Y51" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="Z51" s="31" t="s">
+      <c r="Z51" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AA51" s="34" t="s">
+      <c r="AA51" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W52" s="20" t="s">
         <v>111</v>
       </c>
@@ -4622,14 +4648,14 @@
       <c r="Y52" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Z52" s="34" t="s">
+      <c r="Z52" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AA52" s="34" t="s">
+      <c r="AA52" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W53" s="20" t="s">
         <v>115</v>
       </c>
@@ -4639,14 +4665,14 @@
       <c r="Y53" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="Z53" s="31" t="s">
+      <c r="Z53" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AA53" s="34" t="s">
+      <c r="AA53" s="33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W54" s="20" t="s">
         <v>122</v>
       </c>
@@ -4654,14 +4680,14 @@
         <v>121</v>
       </c>
       <c r="Y54" s="20"/>
-      <c r="Z54" s="31" t="s">
+      <c r="Z54" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="AA54" s="34" t="s">
+      <c r="AA54" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W55" s="20" t="s">
         <v>126</v>
       </c>
@@ -4671,14 +4697,14 @@
       <c r="Y55" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="Z55" s="31" t="s">
+      <c r="Z55" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AA55" s="34" t="s">
+      <c r="AA55" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W56" s="20" t="s">
         <v>130</v>
       </c>
@@ -4688,14 +4714,14 @@
       <c r="Y56" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="Z56" s="31" t="s">
+      <c r="Z56" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AA56" s="34">
+      <c r="AA56" s="33">
         <v>906721949</v>
       </c>
     </row>
-    <row r="57" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W57" s="20" t="s">
         <v>134</v>
       </c>
@@ -4705,14 +4731,14 @@
       <c r="Y57" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Z57" s="31" t="s">
+      <c r="Z57" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="AA57" s="34" t="s">
+      <c r="AA57" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W58" s="20" t="s">
         <v>139</v>
       </c>
@@ -4722,31 +4748,31 @@
       <c r="Y58" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="Z58" s="31" t="s">
+      <c r="Z58" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AA58" s="34" t="s">
+      <c r="AA58" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W59" s="42" t="s">
+    <row r="59" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="X59" s="45" t="s">
+      <c r="X59" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="Y59" s="45" t="s">
+      <c r="Y59" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="Z59" s="43" t="s">
+      <c r="Z59" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AA59" s="44" t="s">
+      <c r="AA59" s="43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W60" s="20" t="s">
         <v>147</v>
       </c>
@@ -4756,14 +4782,14 @@
       <c r="Y60" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="Z60" s="31" t="s">
+      <c r="Z60" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="AA60" s="34" t="s">
+      <c r="AA60" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W61" s="20" t="s">
         <v>151</v>
       </c>
@@ -4773,12 +4799,12 @@
       <c r="Y61" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="34" t="s">
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W62" s="20" t="s">
         <v>159</v>
       </c>
@@ -4788,14 +4814,14 @@
       <c r="Y62" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="Z62" s="31" t="s">
+      <c r="Z62" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="AA62" s="34" t="s">
+      <c r="AA62" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W63" s="20" t="s">
         <v>160</v>
       </c>
@@ -4805,14 +4831,14 @@
       <c r="Y63" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="Z63" s="31" t="s">
+      <c r="Z63" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="AA63" s="34" t="s">
+      <c r="AA63" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W64" s="20" t="s">
         <v>165</v>
       </c>
@@ -4822,14 +4848,14 @@
       <c r="Y64" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="Z64" s="31" t="s">
+      <c r="Z64" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="AA64" s="34" t="s">
+      <c r="AA64" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W65" s="20" t="s">
         <v>171</v>
       </c>
@@ -4837,10 +4863,10 @@
         <v>170</v>
       </c>
       <c r="Y65" s="20"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="34"/>
-    </row>
-    <row r="66" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="33"/>
+    </row>
+    <row r="66" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W66" s="20" t="s">
         <v>175</v>
       </c>
@@ -4850,14 +4876,14 @@
       <c r="Y66" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="Z66" s="31" t="s">
+      <c r="Z66" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="AA66" s="34" t="s">
+      <c r="AA66" s="33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W67" s="20" t="s">
         <v>178</v>
       </c>
@@ -4865,31 +4891,31 @@
         <v>177</v>
       </c>
       <c r="Y67" s="20"/>
-      <c r="Z67" s="31" t="s">
+      <c r="Z67" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="AA67" s="34" t="s">
+      <c r="AA67" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W68" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="X68" s="46" t="s">
+      <c r="X68" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="Y68" s="46" t="s">
+      <c r="Y68" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="Z68" s="31" t="s">
+      <c r="Z68" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="AA68" s="34" t="s">
+      <c r="AA68" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W69" s="20" t="s">
         <v>187</v>
       </c>
@@ -4899,14 +4925,14 @@
       <c r="Y69" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Z69" s="31" t="s">
+      <c r="Z69" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="AA69" s="34" t="s">
+      <c r="AA69" s="33" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W70" s="20" t="s">
         <v>193</v>
       </c>
@@ -4914,10 +4940,10 @@
         <v>192</v>
       </c>
       <c r="Y70" s="20"/>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="34"/>
-    </row>
-    <row r="71" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="33"/>
+    </row>
+    <row r="71" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W71" s="20" t="s">
         <v>194</v>
       </c>
@@ -4925,12 +4951,12 @@
         <v>195</v>
       </c>
       <c r="Y71" s="20"/>
-      <c r="Z71" s="31"/>
-      <c r="AA71" s="34" t="s">
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W72" s="20" t="s">
         <v>197</v>
       </c>
@@ -4940,14 +4966,14 @@
       <c r="Y72" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Z72" s="31" t="s">
+      <c r="Z72" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="AA72" s="34" t="s">
+      <c r="AA72" s="33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W73" s="20" t="s">
         <v>206</v>
       </c>
@@ -4957,14 +4983,14 @@
       <c r="Y73" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="Z73" s="31" t="s">
+      <c r="Z73" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AA73" s="34" t="s">
+      <c r="AA73" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W74" s="20" t="s">
         <v>207</v>
       </c>
@@ -4974,14 +5000,14 @@
       <c r="Y74" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="Z74" s="31" t="s">
+      <c r="Z74" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AA74" s="34" t="s">
+      <c r="AA74" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W75" s="20" t="s">
         <v>212</v>
       </c>
@@ -4989,14 +5015,14 @@
         <v>213</v>
       </c>
       <c r="Y75" s="20"/>
-      <c r="Z75" s="31" t="s">
+      <c r="Z75" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="AA75" s="47" t="s">
+      <c r="AA75" s="46" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W76" s="20" t="s">
         <v>215</v>
       </c>
@@ -5004,29 +5030,29 @@
         <v>215</v>
       </c>
       <c r="Y76" s="20"/>
-      <c r="Z76" s="31" t="s">
+      <c r="Z76" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="AA76" s="34" t="s">
+      <c r="AA76" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W77" s="48" t="s">
+    <row r="77" spans="23:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="X77" s="48" t="s">
+      <c r="X77" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="Y77" s="48" t="s">
+      <c r="Y77" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="Z77" s="49" t="s">
+      <c r="Z77" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="AA77" s="50"/>
-    </row>
-    <row r="78" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA77" s="49"/>
+    </row>
+    <row r="78" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W78" s="20" t="s">
         <v>221</v>
       </c>
@@ -5036,14 +5062,14 @@
       <c r="Y78" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="Z78" s="31" t="s">
+      <c r="Z78" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="AA78" s="34" t="s">
+      <c r="AA78" s="33" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W79" s="20" t="s">
         <v>227</v>
       </c>
@@ -5051,10 +5077,10 @@
         <v>226</v>
       </c>
       <c r="Y79" s="20"/>
-      <c r="Z79" s="31"/>
-      <c r="AA79" s="34"/>
-    </row>
-    <row r="80" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="33"/>
+    </row>
+    <row r="80" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W80" s="20" t="s">
         <v>228</v>
       </c>
@@ -5062,12 +5088,12 @@
         <v>234</v>
       </c>
       <c r="Y80" s="20"/>
-      <c r="Z80" s="31"/>
-      <c r="AA80" s="34" t="s">
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="33" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W81" s="20" t="s">
         <v>229</v>
       </c>
@@ -5075,12 +5101,12 @@
         <v>235</v>
       </c>
       <c r="Y81" s="20"/>
-      <c r="Z81" s="31"/>
-      <c r="AA81" s="34" t="s">
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W82" s="20" t="s">
         <v>230</v>
       </c>
@@ -5088,12 +5114,12 @@
         <v>236</v>
       </c>
       <c r="Y82" s="20"/>
-      <c r="Z82" s="31"/>
-      <c r="AA82" s="34" t="s">
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W83" s="20" t="s">
         <v>231</v>
       </c>
@@ -5101,12 +5127,12 @@
         <v>237</v>
       </c>
       <c r="Y83" s="20"/>
-      <c r="Z83" s="31"/>
-      <c r="AA83" s="34" t="s">
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="33" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W84" s="20" t="s">
         <v>232</v>
       </c>
@@ -5114,12 +5140,12 @@
         <v>238</v>
       </c>
       <c r="Y84" s="20"/>
-      <c r="Z84" s="31"/>
-      <c r="AA84" s="34" t="s">
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W85" s="20" t="s">
         <v>233</v>
       </c>
@@ -5127,8 +5153,8 @@
         <v>239</v>
       </c>
       <c r="Y85" s="20"/>
-      <c r="Z85" s="31"/>
-      <c r="AA85" s="34" t="s">
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="33" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5142,14 +5168,14 @@
       <c r="Y86" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="Z86" s="31" t="s">
+      <c r="Z86" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="AA86" s="51" t="s">
+      <c r="AA86" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W87" s="20" t="s">
         <v>251</v>
       </c>
@@ -5159,14 +5185,14 @@
       <c r="Y87" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="Z87" s="31" t="s">
+      <c r="Z87" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="AA87" s="34" t="s">
+      <c r="AA87" s="33" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="88" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W88" s="20" t="s">
         <v>252</v>
       </c>
@@ -5176,14 +5202,14 @@
       <c r="Y88" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="Z88" s="31" t="s">
+      <c r="Z88" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="AA88" s="34" t="s">
+      <c r="AA88" s="33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W89" s="20" t="s">
         <v>257</v>
       </c>
@@ -5193,14 +5219,14 @@
       <c r="Y89" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="Z89" s="31" t="s">
+      <c r="Z89" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="AA89" s="34" t="s">
+      <c r="AA89" s="33" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W90" s="20" t="s">
         <v>266</v>
       </c>
@@ -5210,31 +5236,31 @@
       <c r="Y90" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="Z90" s="31" t="s">
+      <c r="Z90" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="AA90" s="34" t="s">
+      <c r="AA90" s="33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W91" s="20" t="s">
         <v>267</v>
       </c>
       <c r="X91" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" s="52" t="s">
+      <c r="Y91" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" s="31" t="s">
+      <c r="Z91" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="AA91" s="53" t="s">
+      <c r="AA91" s="52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W92" s="20" t="s">
         <v>271</v>
       </c>
@@ -5244,31 +5270,31 @@
       <c r="Y92" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="Z92" s="31" t="s">
+      <c r="Z92" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="AA92" s="34" t="s">
+      <c r="AA92" s="33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W93" s="55" t="s">
+    <row r="93" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W93" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="X93" s="55" t="s">
+      <c r="X93" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="Y93" s="55" t="s">
+      <c r="Y93" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="Z93" s="55" t="s">
+      <c r="Z93" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="AA93" s="34" t="s">
+      <c r="AA93" s="33" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W94" s="20" t="s">
         <v>282</v>
       </c>
@@ -5278,14 +5304,14 @@
       <c r="Y94" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="Z94" s="31" t="s">
+      <c r="Z94" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="AA94" s="34" t="s">
+      <c r="AA94" s="33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W95" s="20" t="s">
         <v>286</v>
       </c>
@@ -5295,14 +5321,14 @@
       <c r="Y95" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="Z95" s="31" t="s">
+      <c r="Z95" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="AA95" s="34" t="s">
+      <c r="AA95" s="33" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W96" s="20" t="s">
         <v>294</v>
       </c>
@@ -5312,14 +5338,14 @@
       <c r="Y96" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="Z96" s="31" t="s">
+      <c r="Z96" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="AA96" s="34" t="s">
+      <c r="AA96" s="33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W97" s="20" t="s">
         <v>295</v>
       </c>
@@ -5329,31 +5355,31 @@
       <c r="Y97" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="Z97" s="31" t="s">
+      <c r="Z97" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="AA97" s="34" t="s">
+      <c r="AA97" s="33" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W98" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="X98" s="58" t="s">
+      <c r="X98" s="57" t="s">
         <v>300</v>
       </c>
       <c r="Y98" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="Z98" s="31" t="s">
+      <c r="Z98" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="AA98" s="34" t="s">
+      <c r="AA98" s="33" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="23:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W99" s="20" t="s">
         <v>309</v>
       </c>
@@ -5363,14 +5389,14 @@
       <c r="Y99" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="Z99" s="31" t="s">
+      <c r="Z99" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="AA99" s="34" t="s">
+      <c r="AA99" s="33" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W100" s="20" t="s">
         <v>311</v>
       </c>
@@ -5378,10 +5404,10 @@
         <v>310</v>
       </c>
       <c r="Y100" s="20"/>
-      <c r="Z100" s="31"/>
-      <c r="AA100" s="34"/>
-    </row>
-    <row r="101" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="33"/>
+    </row>
+    <row r="101" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W101" s="20" t="s">
         <v>312</v>
       </c>
@@ -5391,31 +5417,31 @@
       <c r="Y101" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="Z101" s="31" t="s">
+      <c r="Z101" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="AA101" s="34" t="s">
+      <c r="AA101" s="33" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="102" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W102" s="20" t="s">
         <v>318</v>
       </c>
       <c r="X102" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="Y102" s="59" t="s">
+      <c r="Y102" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="Z102" s="31" t="s">
+      <c r="Z102" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="AA102" s="34" t="s">
+      <c r="AA102" s="33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W103" s="20" t="s">
         <v>322</v>
       </c>
@@ -5425,14 +5451,14 @@
       <c r="Y103" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="Z103" s="31" t="s">
+      <c r="Z103" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="AA103" s="34" t="s">
+      <c r="AA103" s="33" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W104" s="20" t="s">
         <v>327</v>
       </c>
@@ -5442,31 +5468,31 @@
       <c r="Y104" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="Z104" s="31" t="s">
+      <c r="Z104" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="AA104" s="34" t="s">
+      <c r="AA104" s="33" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="23:27" x14ac:dyDescent="0.2">
-      <c r="W105" s="60" t="s">
+    <row r="105" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W105" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="X105" s="60" t="s">
+      <c r="X105" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="Y105" s="60" t="s">
+      <c r="Y105" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="Z105" s="31" t="s">
+      <c r="Z105" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="AA105" s="34" t="s">
+      <c r="AA105" s="33" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W106" s="20" t="s">
         <v>336</v>
       </c>
@@ -5474,44 +5500,44 @@
         <v>337</v>
       </c>
       <c r="Y106" s="20"/>
-      <c r="Z106" s="31" t="s">
+      <c r="Z106" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="AA106" s="34" t="s">
+      <c r="AA106" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="107" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W107" s="20" t="s">
         <v>340</v>
       </c>
       <c r="X107" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="Y107" s="60" t="s">
+      <c r="Y107" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="Z107" s="31" t="s">
+      <c r="Z107" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="AA107" s="34" t="s">
+      <c r="AA107" s="33" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W108" s="20" t="s">
         <v>345</v>
       </c>
       <c r="X108" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="Y108" s="61" t="s">
+      <c r="Y108" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="Z108" s="31"/>
-      <c r="AA108" s="34"/>
-    </row>
-    <row r="109" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="33"/>
+    </row>
+    <row r="109" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W109" s="20" t="s">
         <v>347</v>
       </c>
@@ -5519,10 +5545,10 @@
         <v>348</v>
       </c>
       <c r="Y109" s="20"/>
-      <c r="Z109" s="31"/>
-      <c r="AA109" s="34"/>
-    </row>
-    <row r="110" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="33"/>
+    </row>
+    <row r="110" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W110" s="20" t="s">
         <v>349</v>
       </c>
@@ -5532,31 +5558,31 @@
       <c r="Y110" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Z110" s="31" t="s">
+      <c r="Z110" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="AA110" s="34" t="s">
+      <c r="AA110" s="33" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="111" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W111" s="20" t="s">
         <v>354</v>
       </c>
       <c r="X111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y111" s="60" t="s">
+      <c r="Y111" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="Z111" s="31" t="s">
+      <c r="Z111" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="AA111" s="62" t="s">
+      <c r="AA111" s="61" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W112" s="20" t="s">
         <v>360</v>
       </c>
@@ -5564,12 +5590,12 @@
         <v>359</v>
       </c>
       <c r="Y112" s="20"/>
-      <c r="Z112" s="31"/>
-      <c r="AA112" s="34" t="s">
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="113" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W113" s="20" t="s">
         <v>362</v>
       </c>
@@ -5579,14 +5605,14 @@
       <c r="Y113" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="Z113" s="31" t="s">
+      <c r="Z113" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="AA113" s="34" t="s">
+      <c r="AA113" s="33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W114" s="20" t="s">
         <v>369</v>
       </c>
@@ -5596,14 +5622,14 @@
       <c r="Y114" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="Z114" s="31" t="s">
+      <c r="Z114" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="AA114" s="34" t="s">
+      <c r="AA114" s="33" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W115" s="20" t="s">
         <v>371</v>
       </c>
@@ -5613,14 +5639,14 @@
       <c r="Y115" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="Z115" s="31" t="s">
+      <c r="Z115" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="AA115" s="63" t="s">
+      <c r="AA115" s="62" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W116" s="20" t="s">
         <v>379</v>
       </c>
@@ -5630,14 +5656,14 @@
       <c r="Y116" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="Z116" s="31" t="s">
+      <c r="Z116" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="AA116" s="34" t="s">
+      <c r="AA116" s="33" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W117" s="20" t="s">
         <v>381</v>
       </c>
@@ -5647,29 +5673,29 @@
       <c r="Y117" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="Z117" s="31"/>
-      <c r="AA117" s="34" t="s">
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="33" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W118" s="20" t="s">
         <v>384</v>
       </c>
       <c r="X118" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="Y118" s="64" t="s">
+      <c r="Y118" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="Z118" s="31" t="s">
+      <c r="Z118" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="AA118" s="60">
+      <c r="AA118" s="59">
         <v>979293941</v>
       </c>
     </row>
-    <row r="119" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W119" s="20" t="s">
         <v>388</v>
       </c>
@@ -5679,10 +5705,10 @@
       <c r="Y119" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="Z119" s="31"/>
-      <c r="AA119" s="34"/>
-    </row>
-    <row r="120" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="33"/>
+    </row>
+    <row r="120" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W120" s="20" t="s">
         <v>392</v>
       </c>
@@ -5692,10 +5718,10 @@
       <c r="Y120" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="Z120" s="31" t="s">
+      <c r="Z120" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="AA120" s="34" t="s">
+      <c r="AA120" s="33" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5703,16 +5729,16 @@
       <c r="W121" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X121" s="65" t="s">
+      <c r="X121" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="Y121" s="65" t="s">
+      <c r="Y121" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="Z121" s="31"/>
-      <c r="AA121" s="34"/>
-    </row>
-    <row r="122" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="33"/>
+    </row>
+    <row r="122" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W122" s="20" t="s">
         <v>399</v>
       </c>
@@ -5722,14 +5748,14 @@
       <c r="Y122" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="Z122" s="31" t="s">
+      <c r="Z122" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="AA122" s="34" t="s">
+      <c r="AA122" s="33" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W123" s="20" t="s">
         <v>404</v>
       </c>
@@ -5739,14 +5765,14 @@
       <c r="Y123" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="Z123" s="31" t="s">
+      <c r="Z123" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AA123" s="34" t="s">
+      <c r="AA123" s="33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="124" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W124" s="20" t="s">
         <v>408</v>
       </c>
@@ -5756,10 +5782,10 @@
       <c r="Y124" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="Z124" s="31"/>
-      <c r="AA124" s="34"/>
-    </row>
-    <row r="125" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="33"/>
+    </row>
+    <row r="125" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W125" s="20" t="s">
         <v>412</v>
       </c>
@@ -5769,14 +5795,14 @@
       <c r="Y125" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="Z125" s="31" t="s">
+      <c r="Z125" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="AA125" s="34" t="s">
+      <c r="AA125" s="33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="126" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W126" s="20" t="s">
         <v>418</v>
       </c>
@@ -5786,10 +5812,10 @@
       <c r="Y126" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="Z126" s="31"/>
-      <c r="AA126" s="34"/>
-    </row>
-    <row r="127" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="33"/>
+    </row>
+    <row r="127" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W127" s="20" t="s">
         <v>419</v>
       </c>
@@ -5799,14 +5825,14 @@
       <c r="Y127" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="Z127" s="31" t="s">
+      <c r="Z127" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="AA127" s="34" t="s">
+      <c r="AA127" s="33" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="128" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W128" s="20" t="s">
         <v>427</v>
       </c>
@@ -5816,14 +5842,14 @@
       <c r="Y128" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="Z128" s="31" t="s">
+      <c r="Z128" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="AA128" s="60">
+      <c r="AA128" s="59">
         <v>978797281</v>
       </c>
     </row>
-    <row r="129" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W129" s="20" t="s">
         <v>429</v>
       </c>
@@ -5833,14 +5859,14 @@
       <c r="Y129" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="Z129" s="31" t="s">
+      <c r="Z129" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="AA129" s="34" t="s">
+      <c r="AA129" s="33" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="130" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W130" s="20" t="s">
         <v>437</v>
       </c>
@@ -5850,65 +5876,65 @@
       <c r="Y130" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="Z130" s="31" t="s">
+      <c r="Z130" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="AA130" s="34" t="s">
+      <c r="AA130" s="33" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="131" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="23:27" ht="15" x14ac:dyDescent="0.25">
       <c r="W131" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="X131" s="66" t="s">
+      <c r="X131" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="Y131" s="66" t="s">
+      <c r="Y131" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="Z131" s="66" t="s">
+      <c r="Z131" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="AA131" s="66" t="s">
+      <c r="AA131" s="65" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="132" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="23:27" ht="15" x14ac:dyDescent="0.25">
       <c r="W132" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="X132" s="67" t="s">
+      <c r="X132" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="Y132" s="68" t="s">
+      <c r="Y132" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="Z132" s="31" t="s">
+      <c r="Z132" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="AA132" s="66" t="s">
+      <c r="AA132" s="65" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="133" spans="23:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W133" s="20" t="s">
         <v>449</v>
       </c>
       <c r="X133" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="Y133" s="69" t="s">
+      <c r="Y133" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="Z133" s="31" t="s">
+      <c r="Z133" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="AA133" s="70" t="s">
+      <c r="AA133" s="69" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="134" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W134" s="20" t="s">
         <v>453</v>
       </c>
@@ -5918,14 +5944,14 @@
       <c r="Y134" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="Z134" s="31" t="s">
+      <c r="Z134" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="AA134" s="34" t="s">
+      <c r="AA134" s="33" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W135" s="20" t="s">
         <v>459</v>
       </c>
@@ -5935,14 +5961,14 @@
       <c r="Y135" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="Z135" s="31" t="s">
+      <c r="Z135" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="AA135" s="34" t="s">
+      <c r="AA135" s="33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="136" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W136" s="20" t="s">
         <v>462</v>
       </c>
@@ -5952,14 +5978,14 @@
       <c r="Y136" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="Z136" s="31" t="s">
+      <c r="Z136" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="AA136" s="34" t="s">
+      <c r="AA136" s="33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="137" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W137" s="20" t="s">
         <v>465</v>
       </c>
@@ -5969,63 +5995,63 @@
       <c r="Y137" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="Z137" s="31"/>
-      <c r="AA137" s="34" t="s">
+      <c r="Z137" s="30"/>
+      <c r="AA137" s="33" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="138" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W138" s="20" t="s">
         <v>473</v>
       </c>
       <c r="X138" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="Y138" s="71" t="s">
+      <c r="Y138" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="Z138" s="72" t="s">
+      <c r="Z138" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="AA138" s="71" t="s">
+      <c r="AA138" s="70" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="139" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="23:27" ht="15" x14ac:dyDescent="0.25">
       <c r="W139" s="20" t="s">
         <v>477</v>
       </c>
       <c r="X139" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="Y139" s="74" t="s">
+      <c r="Y139" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="Z139" s="73" t="s">
+      <c r="Z139" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="AA139" s="74" t="s">
+      <c r="AA139" s="73" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="140" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W140" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="X140" s="75" t="s">
+      <c r="X140" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="Y140" s="60" t="s">
+      <c r="Y140" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="Z140" s="60" t="s">
+      <c r="Z140" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="AA140" s="76" t="s">
+      <c r="AA140" s="75" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="141" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W141" s="20" t="s">
         <v>484</v>
       </c>
@@ -6035,14 +6061,14 @@
       <c r="Y141" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="Z141" s="31" t="s">
+      <c r="Z141" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="AA141" s="34" t="s">
+      <c r="AA141" s="33" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="142" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W142" s="20" t="s">
         <v>492</v>
       </c>
@@ -6052,14 +6078,14 @@
       <c r="Y142" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="Z142" s="31" t="s">
+      <c r="Z142" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="AA142" s="34" t="s">
+      <c r="AA142" s="33" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W143" s="20" t="s">
         <v>493</v>
       </c>
@@ -6069,14 +6095,14 @@
       <c r="Y143" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="Z143" s="31" t="s">
+      <c r="Z143" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="AA143" s="34" t="s">
+      <c r="AA143" s="33" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="144" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W144" s="20" t="s">
         <v>499</v>
       </c>
@@ -6086,14 +6112,14 @@
       <c r="Y144" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="Z144" s="31" t="s">
+      <c r="Z144" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="AA144" s="34" t="s">
+      <c r="AA144" s="33" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="145" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W145" s="20" t="s">
         <v>503</v>
       </c>
@@ -6103,14 +6129,14 @@
       <c r="Y145" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="Z145" s="31" t="s">
+      <c r="Z145" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="AA145" s="34" t="s">
+      <c r="AA145" s="33" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="146" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W146" s="20" t="s">
         <v>508</v>
       </c>
@@ -6120,14 +6146,14 @@
       <c r="Y146" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="Z146" s="31" t="s">
+      <c r="Z146" s="30" t="s">
         <v>511</v>
       </c>
-      <c r="AA146" s="34" t="s">
+      <c r="AA146" s="33" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="147" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W147" s="20" t="s">
         <v>514</v>
       </c>
@@ -6135,14 +6161,14 @@
         <v>513</v>
       </c>
       <c r="Y147" s="20"/>
-      <c r="Z147" s="31" t="s">
+      <c r="Z147" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="AA147" s="34" t="s">
+      <c r="AA147" s="33" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W148" s="20" t="s">
         <v>517</v>
       </c>
@@ -6152,65 +6178,65 @@
       <c r="Y148" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="Z148" s="31" t="s">
+      <c r="Z148" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="AA148" s="34" t="s">
+      <c r="AA148" s="33" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W149" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="X149" s="61" t="s">
+      <c r="X149" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="Y149" s="60" t="s">
+      <c r="Y149" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="Z149" s="31" t="s">
+      <c r="Z149" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="AA149" s="60" t="s">
+      <c r="AA149" s="59" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="150" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W150" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="X150" s="60" t="s">
+      <c r="X150" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="Y150" s="60" t="s">
+      <c r="Y150" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="Z150" s="31" t="s">
+      <c r="Z150" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="AA150" s="60" t="s">
+      <c r="AA150" s="59" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="151" spans="23:27" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="23:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="W151" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="X151" s="77" t="s">
+      <c r="X151" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="Y151" s="78" t="s">
+      <c r="Y151" s="77" t="s">
         <v>534</v>
       </c>
-      <c r="Z151" s="31" t="s">
+      <c r="Z151" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="AA151" s="79" t="s">
+      <c r="AA151" s="78" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="152" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W152" s="20" t="s">
         <v>541</v>
       </c>
@@ -6220,48 +6246,48 @@
       <c r="Y152" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="Z152" s="31" t="s">
+      <c r="Z152" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="AA152" s="60" t="s">
+      <c r="AA152" s="59" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="153" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W153" s="20" t="s">
         <v>542</v>
       </c>
       <c r="X153" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="Y153" s="60" t="s">
+      <c r="Y153" s="59" t="s">
         <v>544</v>
       </c>
-      <c r="Z153" s="31" t="s">
+      <c r="Z153" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="AA153" s="60" t="s">
+      <c r="AA153" s="59" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="154" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="23:27" ht="16.2" x14ac:dyDescent="0.4">
       <c r="W154" s="20" t="s">
         <v>547</v>
       </c>
       <c r="X154" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Y154" s="60" t="s">
+      <c r="Y154" s="59" t="s">
         <v>549</v>
       </c>
-      <c r="Z154" s="31" t="s">
+      <c r="Z154" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="AA154" s="80" t="s">
+      <c r="AA154" s="79" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="155" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W155" s="20" t="s">
         <v>552</v>
       </c>
@@ -6269,10 +6295,10 @@
         <v>553</v>
       </c>
       <c r="Y155" s="20"/>
-      <c r="Z155" s="31"/>
-      <c r="AA155" s="34"/>
-    </row>
-    <row r="156" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z155" s="30"/>
+      <c r="AA155" s="33"/>
+    </row>
+    <row r="156" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W156" s="20" t="s">
         <v>558</v>
       </c>
@@ -6282,14 +6308,14 @@
       <c r="Y156" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="Z156" s="31" t="s">
+      <c r="Z156" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="AA156" s="34" t="s">
+      <c r="AA156" s="33" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="157" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W157" s="20" t="s">
         <v>559</v>
       </c>
@@ -6299,14 +6325,14 @@
       <c r="Y157" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="Z157" s="31" t="s">
+      <c r="Z157" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="AA157" s="34" t="s">
+      <c r="AA157" s="33" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="158" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W158" s="20" t="s">
         <v>564</v>
       </c>
@@ -6316,14 +6342,14 @@
       <c r="Y158" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="Z158" s="31" t="s">
+      <c r="Z158" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="AA158" s="34" t="s">
+      <c r="AA158" s="33" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="159" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W159" s="20" t="s">
         <v>569</v>
       </c>
@@ -6333,14 +6359,14 @@
       <c r="Y159" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="Z159" s="31" t="s">
+      <c r="Z159" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="AA159" s="34" t="s">
+      <c r="AA159" s="33" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="160" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W160" s="20" t="s">
         <v>574</v>
       </c>
@@ -6350,14 +6376,14 @@
       <c r="Y160" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="Z160" s="31" t="s">
+      <c r="Z160" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="AA160" s="34" t="s">
+      <c r="AA160" s="33" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="161" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W161" s="20" t="s">
         <v>579</v>
       </c>
@@ -6367,31 +6393,31 @@
       <c r="Y161" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="Z161" s="31" t="s">
+      <c r="Z161" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="AA161" s="34" t="s">
+      <c r="AA161" s="33" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W162" s="20" t="s">
         <v>584</v>
       </c>
       <c r="X162" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="Y162" s="81" t="s">
+      <c r="Y162" s="80" t="s">
         <v>586</v>
       </c>
-      <c r="Z162" s="31" t="s">
+      <c r="Z162" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="AA162" s="82" t="s">
+      <c r="AA162" s="81" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="163" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W163" s="20" t="s">
         <v>589</v>
       </c>
@@ -6401,14 +6427,14 @@
       <c r="Y163" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="Z163" s="31" t="s">
+      <c r="Z163" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="AA163" s="34" t="s">
+      <c r="AA163" s="33" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="164" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W164" s="20" t="s">
         <v>595</v>
       </c>
@@ -6418,31 +6444,31 @@
       <c r="Y164" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="Z164" s="31" t="s">
+      <c r="Z164" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="AA164" s="34" t="s">
+      <c r="AA164" s="33" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="165" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W165" s="20" t="s">
         <v>600</v>
       </c>
       <c r="X165" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="Y165" s="60" t="s">
+      <c r="Y165" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="Z165" s="31" t="s">
+      <c r="Z165" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="AA165" s="83" t="s">
+      <c r="AA165" s="82" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="166" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W166" s="20" t="s">
         <v>604</v>
       </c>
@@ -6452,14 +6478,14 @@
       <c r="Y166" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="Z166" s="31" t="s">
+      <c r="Z166" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="AA166" s="34" t="s">
+      <c r="AA166" s="33" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="167" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W167" s="20" t="s">
         <v>607</v>
       </c>
@@ -6469,14 +6495,14 @@
       <c r="Y167" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="Z167" s="31" t="s">
+      <c r="Z167" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="AA167" s="34" t="s">
+      <c r="AA167" s="33" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="168" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W168" s="20" t="s">
         <v>611</v>
       </c>
@@ -6486,27 +6512,27 @@
       <c r="Y168" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="Z168" s="31" t="s">
+      <c r="Z168" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="AA168" s="34" t="s">
+      <c r="AA168" s="33" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="169" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W169" s="20" t="s">
         <v>614</v>
       </c>
       <c r="X169" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="Y169" s="84" t="s">
+      <c r="Y169" s="83" t="s">
         <v>616</v>
       </c>
-      <c r="Z169" s="31"/>
-      <c r="AA169" s="34"/>
-    </row>
-    <row r="170" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z169" s="30"/>
+      <c r="AA169" s="33"/>
+    </row>
+    <row r="170" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W170" s="20" t="s">
         <v>617</v>
       </c>
@@ -6516,14 +6542,14 @@
       <c r="Y170" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="Z170" s="31" t="s">
+      <c r="Z170" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="AA170" s="34" t="s">
+      <c r="AA170" s="33" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W171" s="20" t="s">
         <v>626</v>
       </c>
@@ -6533,14 +6559,14 @@
       <c r="Y171" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="Z171" s="31" t="s">
+      <c r="Z171" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="AA171" s="60" t="s">
+      <c r="AA171" s="59" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="172" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W172" s="20" t="s">
         <v>627</v>
       </c>
@@ -6550,14 +6576,14 @@
       <c r="Y172" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="Z172" s="31" t="s">
+      <c r="Z172" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="AA172" s="34" t="s">
+      <c r="AA172" s="33" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W173" s="20" t="s">
         <v>636</v>
       </c>
@@ -6567,14 +6593,14 @@
       <c r="Y173" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="Z173" s="31" t="s">
+      <c r="Z173" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="AA173" s="34" t="s">
+      <c r="AA173" s="33" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="174" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="23:27" ht="15" x14ac:dyDescent="0.25">
       <c r="W174" s="20" t="s">
         <v>638</v>
       </c>
@@ -6584,31 +6610,31 @@
       <c r="Y174" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="Z174" s="31" t="s">
+      <c r="Z174" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="AA174" s="86" t="s">
+      <c r="AA174" s="85" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="175" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W175" s="20" t="s">
         <v>642</v>
       </c>
       <c r="X175" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="Y175" s="60" t="s">
+      <c r="Y175" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="Z175" s="31" t="s">
+      <c r="Z175" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="AA175" s="83" t="s">
+      <c r="AA175" s="82" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W176" s="20" t="s">
         <v>647</v>
       </c>
@@ -6618,14 +6644,14 @@
       <c r="Y176" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="Z176" s="31" t="s">
+      <c r="Z176" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="AA176" s="87" t="s">
+      <c r="AA176" s="86" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="177" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W177" s="20" t="s">
         <v>652</v>
       </c>
@@ -6633,10 +6659,10 @@
         <v>653</v>
       </c>
       <c r="Y177" s="20"/>
-      <c r="Z177" s="31"/>
-      <c r="AA177" s="34"/>
-    </row>
-    <row r="178" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z177" s="30"/>
+      <c r="AA177" s="33"/>
+    </row>
+    <row r="178" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W178" s="20" t="s">
         <v>654</v>
       </c>
@@ -6646,31 +6672,31 @@
       <c r="Y178" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="Z178" s="31" t="s">
+      <c r="Z178" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="AA178" s="34" t="s">
+      <c r="AA178" s="33" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="179" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W179" s="20" t="s">
         <v>659</v>
       </c>
       <c r="X179" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="Y179" s="60" t="s">
+      <c r="Y179" s="59" t="s">
         <v>661</v>
       </c>
-      <c r="Z179" s="31" t="s">
+      <c r="Z179" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="AA179" s="83" t="s">
+      <c r="AA179" s="82" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="180" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W180" s="20" t="s">
         <v>665</v>
       </c>
@@ -6680,14 +6706,14 @@
       <c r="Y180" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="Z180" s="31" t="s">
+      <c r="Z180" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="AA180" s="34" t="s">
+      <c r="AA180" s="33" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="181" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W181" s="20" t="s">
         <v>669</v>
       </c>
@@ -6697,14 +6723,14 @@
       <c r="Y181" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="Z181" s="31" t="s">
+      <c r="Z181" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="AA181" s="34" t="s">
+      <c r="AA181" s="33" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="182" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W182" s="20" t="s">
         <v>674</v>
       </c>
@@ -6712,108 +6738,108 @@
         <v>675</v>
       </c>
       <c r="Y182" s="20"/>
-      <c r="Z182" s="31"/>
-      <c r="AA182" s="34"/>
-    </row>
-    <row r="183" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z182" s="30"/>
+      <c r="AA182" s="33"/>
+    </row>
+    <row r="183" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W183" s="20" t="s">
         <v>676</v>
       </c>
       <c r="X183" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="Y183" s="60" t="s">
+      <c r="Y183" s="59" t="s">
         <v>678</v>
       </c>
-      <c r="Z183" s="31" t="s">
+      <c r="Z183" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="AA183" s="88" t="s">
+      <c r="AA183" s="87" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="184" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W184" s="20" t="s">
         <v>682</v>
       </c>
       <c r="X184" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="Y184" s="60" t="s">
+      <c r="Y184" s="59" t="s">
         <v>681</v>
       </c>
-      <c r="Z184" s="31" t="s">
+      <c r="Z184" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="AA184" s="83" t="s">
+      <c r="AA184" s="82" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="185" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W185" s="20" t="s">
         <v>686</v>
       </c>
       <c r="X185" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="Y185" s="60" t="s">
+      <c r="Y185" s="59" t="s">
         <v>687</v>
       </c>
-      <c r="Z185" s="31" t="s">
+      <c r="Z185" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="AA185" s="83" t="s">
+      <c r="AA185" s="82" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="186" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W186" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="X186" s="60" t="s">
+      <c r="X186" s="59" t="s">
         <v>690</v>
       </c>
       <c r="Y186" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="Z186" s="31" t="s">
+      <c r="Z186" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="AA186" s="60" t="s">
+      <c r="AA186" s="59" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="187" spans="23:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="23:27" ht="18" x14ac:dyDescent="0.35">
       <c r="W187" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="X187" s="60" t="s">
+      <c r="X187" s="59" t="s">
         <v>695</v>
       </c>
-      <c r="Y187" s="61" t="s">
+      <c r="Y187" s="60" t="s">
         <v>697</v>
       </c>
-      <c r="Z187" s="31" t="s">
+      <c r="Z187" s="30" t="s">
         <v>698</v>
       </c>
-      <c r="AA187" s="89" t="s">
+      <c r="AA187" s="88" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="188" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="23:27" ht="15" x14ac:dyDescent="0.25">
       <c r="W188" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="X188" s="90" t="s">
+      <c r="X188" s="89" t="s">
         <v>700</v>
       </c>
-      <c r="Y188" s="90" t="s">
+      <c r="Y188" s="89" t="s">
         <v>701</v>
       </c>
-      <c r="Z188" s="31" t="s">
+      <c r="Z188" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="AA188" s="34" t="s">
+      <c r="AA188" s="33" t="s">
         <v>703</v>
       </c>
     </row>
@@ -6821,20 +6847,20 @@
       <c r="W189" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="X189" s="93" t="s">
+      <c r="X189" s="92" t="s">
         <v>705</v>
       </c>
       <c r="Y189" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="Z189" s="31" t="s">
+      <c r="Z189" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="AA189" s="94" t="s">
+      <c r="AA189" s="93" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="190" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W190" s="20" t="s">
         <v>718</v>
       </c>
@@ -6844,14 +6870,14 @@
       <c r="Y190" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="Z190" s="31" t="s">
+      <c r="Z190" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="AA190" s="34" t="s">
+      <c r="AA190" s="33" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W191" s="20" t="s">
         <v>719</v>
       </c>
@@ -6861,14 +6887,14 @@
       <c r="Y191" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="Z191" s="31" t="s">
+      <c r="Z191" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="AA191" s="34" t="s">
+      <c r="AA191" s="33" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="192" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W192" s="20" t="s">
         <v>724</v>
       </c>
@@ -6876,10 +6902,10 @@
         <v>725</v>
       </c>
       <c r="Y192" s="20"/>
-      <c r="Z192" s="31"/>
-      <c r="AA192" s="34"/>
-    </row>
-    <row r="193" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z192" s="30"/>
+      <c r="AA192" s="33"/>
+    </row>
+    <row r="193" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W193" s="20" t="s">
         <v>727</v>
       </c>
@@ -6889,14 +6915,14 @@
       <c r="Y193" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="Z193" s="31" t="s">
+      <c r="Z193" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="AA193" s="34" t="s">
+      <c r="AA193" s="33" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="194" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W194" s="20" t="s">
         <v>731</v>
       </c>
@@ -6906,14 +6932,14 @@
       <c r="Y194" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="Z194" s="31" t="s">
+      <c r="Z194" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="AA194" s="34" t="s">
+      <c r="AA194" s="33" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="195" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W195" s="20" t="s">
         <v>736</v>
       </c>
@@ -6923,14 +6949,14 @@
       <c r="Y195" s="20" t="s">
         <v>738</v>
       </c>
-      <c r="Z195" s="31" t="s">
+      <c r="Z195" s="30" t="s">
         <v>739</v>
       </c>
-      <c r="AA195" s="34" t="s">
+      <c r="AA195" s="33" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="196" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W196" s="20" t="s">
         <v>741</v>
       </c>
@@ -6938,14 +6964,14 @@
         <v>742</v>
       </c>
       <c r="Y196" s="20"/>
-      <c r="Z196" s="31" t="s">
+      <c r="Z196" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="AA196" s="34" t="s">
+      <c r="AA196" s="33" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="197" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W197" s="20" t="s">
         <v>745</v>
       </c>
@@ -6955,14 +6981,14 @@
       <c r="Y197" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="Z197" s="31" t="s">
+      <c r="Z197" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="AA197" s="34" t="s">
+      <c r="AA197" s="33" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="198" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W198" s="20" t="s">
         <v>750</v>
       </c>
@@ -6972,14 +6998,14 @@
       <c r="Y198" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="Z198" s="31" t="s">
+      <c r="Z198" s="30" t="s">
         <v>753</v>
       </c>
-      <c r="AA198" s="34" t="s">
+      <c r="AA198" s="33" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="199" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W199" s="20" t="s">
         <v>755</v>
       </c>
@@ -6989,14 +7015,14 @@
       <c r="Y199" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="Z199" s="31" t="s">
+      <c r="Z199" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="AA199" s="34" t="s">
+      <c r="AA199" s="33" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="200" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W200" s="20" t="s">
         <v>759</v>
       </c>
@@ -7004,14 +7030,14 @@
         <v>760</v>
       </c>
       <c r="Y200" s="20"/>
-      <c r="Z200" s="31" t="s">
+      <c r="Z200" s="30" t="s">
         <v>761</v>
       </c>
-      <c r="AA200" s="34" t="s">
+      <c r="AA200" s="33" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W201" s="20" t="s">
         <v>763</v>
       </c>
@@ -7021,592 +7047,568 @@
       <c r="Y201" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="Z201" s="31" t="s">
+      <c r="Z201" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="AA201" s="34" t="s">
+      <c r="AA201" s="33" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="202" spans="23:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W202" s="20"/>
       <c r="X202" s="20"/>
       <c r="Y202" s="20"/>
-      <c r="Z202" s="31"/>
-      <c r="AA202" s="34"/>
-    </row>
-    <row r="203" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z202" s="30"/>
+      <c r="AA202" s="33"/>
+    </row>
+    <row r="203" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W203" s="20"/>
       <c r="X203" s="20"/>
       <c r="Y203" s="20"/>
-      <c r="Z203" s="31"/>
-      <c r="AA203" s="34"/>
-    </row>
-    <row r="204" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z203" s="30"/>
+      <c r="AA203" s="33"/>
+    </row>
+    <row r="204" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W204" s="20"/>
       <c r="X204" s="20"/>
       <c r="Y204" s="20"/>
-      <c r="Z204" s="31"/>
-      <c r="AA204" s="34"/>
-    </row>
-    <row r="205" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z204" s="30"/>
+      <c r="AA204" s="33"/>
+    </row>
+    <row r="205" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W205" s="20"/>
       <c r="X205" s="20"/>
       <c r="Y205" s="20"/>
-      <c r="Z205" s="31"/>
-      <c r="AA205" s="34"/>
-    </row>
-    <row r="206" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z205" s="30"/>
+      <c r="AA205" s="33"/>
+    </row>
+    <row r="206" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W206" s="20"/>
       <c r="X206" s="20"/>
       <c r="Y206" s="20"/>
-      <c r="Z206" s="31"/>
-      <c r="AA206" s="34"/>
-    </row>
-    <row r="207" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z206" s="30"/>
+      <c r="AA206" s="33"/>
+    </row>
+    <row r="207" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W207" s="20"/>
       <c r="X207" s="20"/>
       <c r="Y207" s="20"/>
-      <c r="Z207" s="31"/>
-      <c r="AA207" s="34"/>
-    </row>
-    <row r="208" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z207" s="30"/>
+      <c r="AA207" s="33"/>
+    </row>
+    <row r="208" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W208" s="20"/>
       <c r="X208" s="20"/>
       <c r="Y208" s="20"/>
-      <c r="Z208" s="31"/>
-      <c r="AA208" s="34"/>
-    </row>
-    <row r="209" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z208" s="30"/>
+      <c r="AA208" s="33"/>
+    </row>
+    <row r="209" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W209" s="20"/>
       <c r="X209" s="20"/>
       <c r="Y209" s="20"/>
-      <c r="Z209" s="31"/>
-      <c r="AA209" s="34"/>
-    </row>
-    <row r="210" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z209" s="30"/>
+      <c r="AA209" s="33"/>
+    </row>
+    <row r="210" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W210" s="20"/>
       <c r="X210" s="20"/>
       <c r="Y210" s="20"/>
-      <c r="Z210" s="31"/>
-      <c r="AA210" s="34"/>
-    </row>
-    <row r="211" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z210" s="30"/>
+      <c r="AA210" s="33"/>
+    </row>
+    <row r="211" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W211" s="20"/>
       <c r="X211" s="20"/>
       <c r="Y211" s="20"/>
-      <c r="Z211" s="31"/>
-      <c r="AA211" s="34"/>
-    </row>
-    <row r="212" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z211" s="30"/>
+      <c r="AA211" s="33"/>
+    </row>
+    <row r="212" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W212" s="20"/>
       <c r="X212" s="20"/>
       <c r="Y212" s="20"/>
-      <c r="Z212" s="31"/>
-      <c r="AA212" s="34"/>
-    </row>
-    <row r="213" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z212" s="30"/>
+      <c r="AA212" s="33"/>
+    </row>
+    <row r="213" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W213" s="20"/>
       <c r="X213" s="20"/>
       <c r="Y213" s="20"/>
-      <c r="Z213" s="31"/>
-      <c r="AA213" s="34"/>
-    </row>
-    <row r="214" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z213" s="30"/>
+      <c r="AA213" s="33"/>
+    </row>
+    <row r="214" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W214" s="20"/>
       <c r="X214" s="20"/>
       <c r="Y214" s="20"/>
-      <c r="Z214" s="31"/>
-      <c r="AA214" s="34"/>
-    </row>
-    <row r="215" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z214" s="30"/>
+      <c r="AA214" s="33"/>
+    </row>
+    <row r="215" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W215" s="20"/>
       <c r="X215" s="20"/>
       <c r="Y215" s="20"/>
-      <c r="Z215" s="31"/>
-      <c r="AA215" s="34"/>
-    </row>
-    <row r="216" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z215" s="30"/>
+      <c r="AA215" s="33"/>
+    </row>
+    <row r="216" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W216" s="20"/>
       <c r="X216" s="20"/>
       <c r="Y216" s="20"/>
-      <c r="Z216" s="31"/>
-      <c r="AA216" s="34"/>
-    </row>
-    <row r="217" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z216" s="30"/>
+      <c r="AA216" s="33"/>
+    </row>
+    <row r="217" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W217" s="20"/>
       <c r="X217" s="20"/>
       <c r="Y217" s="20"/>
-      <c r="Z217" s="31"/>
-      <c r="AA217" s="34"/>
-    </row>
-    <row r="218" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z217" s="30"/>
+      <c r="AA217" s="33"/>
+    </row>
+    <row r="218" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W218" s="20"/>
       <c r="X218" s="20"/>
       <c r="Y218" s="20"/>
-      <c r="Z218" s="31"/>
-      <c r="AA218" s="34"/>
-    </row>
-    <row r="219" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z218" s="30"/>
+      <c r="AA218" s="33"/>
+    </row>
+    <row r="219" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W219" s="20"/>
       <c r="X219" s="20"/>
       <c r="Y219" s="20"/>
-      <c r="Z219" s="31"/>
-      <c r="AA219" s="34"/>
-    </row>
-    <row r="220" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z219" s="30"/>
+      <c r="AA219" s="33"/>
+    </row>
+    <row r="220" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W220" s="20"/>
       <c r="X220" s="20"/>
       <c r="Y220" s="20"/>
-      <c r="Z220" s="31"/>
-      <c r="AA220" s="34"/>
-    </row>
-    <row r="221" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z220" s="30"/>
+      <c r="AA220" s="33"/>
+    </row>
+    <row r="221" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W221" s="20"/>
       <c r="X221" s="20"/>
       <c r="Y221" s="20"/>
-      <c r="Z221" s="31"/>
-      <c r="AA221" s="34"/>
-    </row>
-    <row r="222" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z221" s="30"/>
+      <c r="AA221" s="33"/>
+    </row>
+    <row r="222" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W222" s="20"/>
       <c r="X222" s="20"/>
       <c r="Y222" s="20"/>
-      <c r="Z222" s="31"/>
-      <c r="AA222" s="34"/>
-    </row>
-    <row r="223" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z222" s="30"/>
+      <c r="AA222" s="33"/>
+    </row>
+    <row r="223" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W223" s="20"/>
       <c r="X223" s="20"/>
       <c r="Y223" s="20"/>
-      <c r="Z223" s="31"/>
-      <c r="AA223" s="34"/>
-    </row>
-    <row r="224" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z223" s="30"/>
+      <c r="AA223" s="33"/>
+    </row>
+    <row r="224" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W224" s="20"/>
       <c r="X224" s="20"/>
       <c r="Y224" s="20"/>
-      <c r="Z224" s="31"/>
-      <c r="AA224" s="34"/>
-    </row>
-    <row r="225" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z224" s="30"/>
+      <c r="AA224" s="33"/>
+    </row>
+    <row r="225" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W225" s="20"/>
       <c r="X225" s="20"/>
       <c r="Y225" s="20"/>
-      <c r="Z225" s="31"/>
-      <c r="AA225" s="34"/>
-    </row>
-    <row r="226" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z225" s="30"/>
+      <c r="AA225" s="33"/>
+    </row>
+    <row r="226" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W226" s="20"/>
       <c r="X226" s="20"/>
       <c r="Y226" s="20"/>
-      <c r="Z226" s="31"/>
-      <c r="AA226" s="34"/>
-    </row>
-    <row r="227" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z226" s="30"/>
+      <c r="AA226" s="33"/>
+    </row>
+    <row r="227" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W227" s="20"/>
       <c r="X227" s="20"/>
       <c r="Y227" s="20"/>
-      <c r="Z227" s="31"/>
-      <c r="AA227" s="34"/>
-    </row>
-    <row r="228" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z227" s="30"/>
+      <c r="AA227" s="33"/>
+    </row>
+    <row r="228" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W228" s="20"/>
       <c r="X228" s="20"/>
       <c r="Y228" s="20"/>
-      <c r="Z228" s="31"/>
-      <c r="AA228" s="34"/>
-    </row>
-    <row r="229" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z228" s="30"/>
+      <c r="AA228" s="33"/>
+    </row>
+    <row r="229" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W229" s="20"/>
       <c r="X229" s="20"/>
       <c r="Y229" s="20"/>
-      <c r="Z229" s="31"/>
-      <c r="AA229" s="34"/>
-    </row>
-    <row r="230" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z229" s="30"/>
+      <c r="AA229" s="33"/>
+    </row>
+    <row r="230" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W230" s="20"/>
       <c r="X230" s="20"/>
       <c r="Y230" s="20"/>
-      <c r="Z230" s="31"/>
-      <c r="AA230" s="34"/>
-    </row>
-    <row r="231" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z230" s="30"/>
+      <c r="AA230" s="33"/>
+    </row>
+    <row r="231" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W231" s="20"/>
       <c r="X231" s="20"/>
       <c r="Y231" s="20"/>
-      <c r="Z231" s="31"/>
-      <c r="AA231" s="34"/>
-    </row>
-    <row r="232" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z231" s="30"/>
+      <c r="AA231" s="33"/>
+    </row>
+    <row r="232" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W232" s="20"/>
       <c r="X232" s="20"/>
       <c r="Y232" s="20"/>
-      <c r="Z232" s="31"/>
-      <c r="AA232" s="34"/>
-    </row>
-    <row r="233" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z232" s="30"/>
+      <c r="AA232" s="33"/>
+    </row>
+    <row r="233" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W233" s="20"/>
       <c r="X233" s="20"/>
       <c r="Y233" s="20"/>
-      <c r="Z233" s="31"/>
-      <c r="AA233" s="34"/>
-    </row>
-    <row r="234" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z233" s="30"/>
+      <c r="AA233" s="33"/>
+    </row>
+    <row r="234" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W234" s="20"/>
       <c r="X234" s="20"/>
       <c r="Y234" s="20"/>
-      <c r="Z234" s="31"/>
-      <c r="AA234" s="34"/>
-    </row>
-    <row r="235" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z234" s="30"/>
+      <c r="AA234" s="33"/>
+    </row>
+    <row r="235" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W235" s="20"/>
       <c r="X235" s="20"/>
       <c r="Y235" s="20"/>
-      <c r="Z235" s="31"/>
-      <c r="AA235" s="34"/>
-    </row>
-    <row r="236" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z235" s="30"/>
+      <c r="AA235" s="33"/>
+    </row>
+    <row r="236" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W236" s="20"/>
       <c r="X236" s="20"/>
       <c r="Y236" s="20"/>
-      <c r="Z236" s="31"/>
-      <c r="AA236" s="34"/>
-    </row>
-    <row r="237" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z236" s="30"/>
+      <c r="AA236" s="33"/>
+    </row>
+    <row r="237" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W237" s="20"/>
       <c r="X237" s="20"/>
       <c r="Y237" s="20"/>
-      <c r="Z237" s="31"/>
-      <c r="AA237" s="34"/>
-    </row>
-    <row r="238" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z237" s="30"/>
+      <c r="AA237" s="33"/>
+    </row>
+    <row r="238" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W238" s="20"/>
       <c r="X238" s="20"/>
       <c r="Y238" s="20"/>
-      <c r="Z238" s="31"/>
-      <c r="AA238" s="34"/>
-    </row>
-    <row r="239" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z238" s="30"/>
+      <c r="AA238" s="33"/>
+    </row>
+    <row r="239" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W239" s="20"/>
       <c r="X239" s="20"/>
       <c r="Y239" s="20"/>
-      <c r="Z239" s="31"/>
-      <c r="AA239" s="34"/>
-    </row>
-    <row r="240" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z239" s="30"/>
+      <c r="AA239" s="33"/>
+    </row>
+    <row r="240" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W240" s="20"/>
       <c r="X240" s="20"/>
       <c r="Y240" s="20"/>
-      <c r="Z240" s="31"/>
-      <c r="AA240" s="34"/>
-    </row>
-    <row r="241" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z240" s="30"/>
+      <c r="AA240" s="33"/>
+    </row>
+    <row r="241" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W241" s="20"/>
       <c r="X241" s="20"/>
       <c r="Y241" s="20"/>
-      <c r="Z241" s="31"/>
-      <c r="AA241" s="34"/>
-    </row>
-    <row r="242" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z241" s="30"/>
+      <c r="AA241" s="33"/>
+    </row>
+    <row r="242" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W242" s="20"/>
       <c r="X242" s="20"/>
       <c r="Y242" s="20"/>
-      <c r="Z242" s="31"/>
-      <c r="AA242" s="34"/>
-    </row>
-    <row r="243" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z242" s="30"/>
+      <c r="AA242" s="33"/>
+    </row>
+    <row r="243" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W243" s="20"/>
       <c r="X243" s="20"/>
       <c r="Y243" s="20"/>
-      <c r="Z243" s="31"/>
-      <c r="AA243" s="34"/>
-    </row>
-    <row r="244" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z243" s="30"/>
+      <c r="AA243" s="33"/>
+    </row>
+    <row r="244" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W244" s="20"/>
       <c r="X244" s="20"/>
       <c r="Y244" s="20"/>
-      <c r="Z244" s="31"/>
-      <c r="AA244" s="34"/>
-    </row>
-    <row r="245" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z244" s="30"/>
+      <c r="AA244" s="33"/>
+    </row>
+    <row r="245" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W245" s="20"/>
       <c r="X245" s="20"/>
       <c r="Y245" s="20"/>
-      <c r="Z245" s="31"/>
-      <c r="AA245" s="34"/>
-    </row>
-    <row r="246" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z245" s="30"/>
+      <c r="AA245" s="33"/>
+    </row>
+    <row r="246" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W246" s="20"/>
       <c r="X246" s="20"/>
       <c r="Y246" s="20"/>
-      <c r="Z246" s="31"/>
-      <c r="AA246" s="34"/>
-    </row>
-    <row r="247" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z246" s="30"/>
+      <c r="AA246" s="33"/>
+    </row>
+    <row r="247" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W247" s="20"/>
       <c r="X247" s="20"/>
       <c r="Y247" s="20"/>
-      <c r="Z247" s="31"/>
-      <c r="AA247" s="34"/>
-    </row>
-    <row r="248" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z247" s="30"/>
+      <c r="AA247" s="33"/>
+    </row>
+    <row r="248" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W248" s="20"/>
       <c r="X248" s="20"/>
       <c r="Y248" s="20"/>
-      <c r="Z248" s="31"/>
-      <c r="AA248" s="34"/>
-    </row>
-    <row r="249" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z248" s="30"/>
+      <c r="AA248" s="33"/>
+    </row>
+    <row r="249" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W249" s="20"/>
       <c r="X249" s="20"/>
       <c r="Y249" s="20"/>
-      <c r="Z249" s="31"/>
-      <c r="AA249" s="34"/>
-    </row>
-    <row r="250" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z249" s="30"/>
+      <c r="AA249" s="33"/>
+    </row>
+    <row r="250" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W250" s="20"/>
       <c r="X250" s="20"/>
       <c r="Y250" s="20"/>
-      <c r="Z250" s="31"/>
-      <c r="AA250" s="34"/>
-    </row>
-    <row r="251" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z250" s="30"/>
+      <c r="AA250" s="33"/>
+    </row>
+    <row r="251" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W251" s="20"/>
       <c r="X251" s="20"/>
       <c r="Y251" s="20"/>
-      <c r="Z251" s="31"/>
-      <c r="AA251" s="34"/>
-    </row>
-    <row r="252" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z251" s="30"/>
+      <c r="AA251" s="33"/>
+    </row>
+    <row r="252" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W252" s="20"/>
       <c r="X252" s="20"/>
       <c r="Y252" s="20"/>
-      <c r="Z252" s="31"/>
-      <c r="AA252" s="34"/>
-    </row>
-    <row r="253" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z252" s="30"/>
+      <c r="AA252" s="33"/>
+    </row>
+    <row r="253" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W253" s="20"/>
       <c r="X253" s="20"/>
       <c r="Y253" s="20"/>
-      <c r="Z253" s="31"/>
-      <c r="AA253" s="34"/>
-    </row>
-    <row r="254" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z253" s="30"/>
+      <c r="AA253" s="33"/>
+    </row>
+    <row r="254" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W254" s="20"/>
       <c r="X254" s="20"/>
       <c r="Y254" s="20"/>
-      <c r="Z254" s="31"/>
-      <c r="AA254" s="34"/>
-    </row>
-    <row r="255" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z254" s="30"/>
+      <c r="AA254" s="33"/>
+    </row>
+    <row r="255" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W255" s="20"/>
       <c r="X255" s="20"/>
       <c r="Y255" s="20"/>
-      <c r="Z255" s="31"/>
-      <c r="AA255" s="34"/>
-    </row>
-    <row r="256" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z255" s="30"/>
+      <c r="AA255" s="33"/>
+    </row>
+    <row r="256" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W256" s="20"/>
       <c r="X256" s="20"/>
       <c r="Y256" s="20"/>
-      <c r="Z256" s="31"/>
-      <c r="AA256" s="34"/>
-    </row>
-    <row r="257" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z256" s="30"/>
+      <c r="AA256" s="33"/>
+    </row>
+    <row r="257" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W257" s="20"/>
       <c r="X257" s="20"/>
       <c r="Y257" s="20"/>
-      <c r="Z257" s="31"/>
-      <c r="AA257" s="34"/>
-    </row>
-    <row r="258" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z257" s="30"/>
+      <c r="AA257" s="33"/>
+    </row>
+    <row r="258" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W258" s="20"/>
       <c r="X258" s="20"/>
       <c r="Y258" s="20"/>
-      <c r="Z258" s="31"/>
-      <c r="AA258" s="34"/>
-    </row>
-    <row r="259" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z258" s="30"/>
+      <c r="AA258" s="33"/>
+    </row>
+    <row r="259" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W259" s="20"/>
       <c r="X259" s="20"/>
       <c r="Y259" s="20"/>
-      <c r="Z259" s="31"/>
-      <c r="AA259" s="34"/>
-    </row>
-    <row r="260" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z259" s="30"/>
+      <c r="AA259" s="33"/>
+    </row>
+    <row r="260" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W260" s="20"/>
       <c r="X260" s="20"/>
       <c r="Y260" s="20"/>
-      <c r="Z260" s="31"/>
-      <c r="AA260" s="34"/>
-    </row>
-    <row r="261" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z260" s="30"/>
+      <c r="AA260" s="33"/>
+    </row>
+    <row r="261" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W261" s="20"/>
       <c r="X261" s="20"/>
       <c r="Y261" s="20"/>
-      <c r="Z261" s="31"/>
-      <c r="AA261" s="34"/>
-    </row>
-    <row r="262" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z261" s="30"/>
+      <c r="AA261" s="33"/>
+    </row>
+    <row r="262" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W262" s="20"/>
       <c r="X262" s="20"/>
       <c r="Y262" s="20"/>
-      <c r="Z262" s="31"/>
-      <c r="AA262" s="34"/>
-    </row>
-    <row r="263" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z262" s="30"/>
+      <c r="AA262" s="33"/>
+    </row>
+    <row r="263" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W263" s="20"/>
       <c r="X263" s="20"/>
       <c r="Y263" s="20"/>
-      <c r="Z263" s="31"/>
-      <c r="AA263" s="34"/>
-    </row>
-    <row r="264" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z263" s="30"/>
+      <c r="AA263" s="33"/>
+    </row>
+    <row r="264" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W264" s="20"/>
       <c r="X264" s="20"/>
       <c r="Y264" s="20"/>
-      <c r="Z264" s="31"/>
-      <c r="AA264" s="34"/>
-    </row>
-    <row r="265" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z264" s="30"/>
+      <c r="AA264" s="33"/>
+    </row>
+    <row r="265" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W265" s="20"/>
       <c r="X265" s="20"/>
       <c r="Y265" s="20"/>
-      <c r="Z265" s="31"/>
-      <c r="AA265" s="34"/>
-    </row>
-    <row r="266" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z265" s="30"/>
+      <c r="AA265" s="33"/>
+    </row>
+    <row r="266" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W266" s="20"/>
       <c r="X266" s="20"/>
       <c r="Y266" s="20"/>
-      <c r="Z266" s="31"/>
-      <c r="AA266" s="34"/>
-    </row>
-    <row r="267" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z266" s="30"/>
+      <c r="AA266" s="33"/>
+    </row>
+    <row r="267" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W267" s="20"/>
       <c r="X267" s="20"/>
       <c r="Y267" s="20"/>
-      <c r="Z267" s="31"/>
-      <c r="AA267" s="34"/>
-    </row>
-    <row r="268" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z267" s="30"/>
+      <c r="AA267" s="33"/>
+    </row>
+    <row r="268" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W268" s="20"/>
       <c r="X268" s="20"/>
       <c r="Y268" s="20"/>
-      <c r="Z268" s="31"/>
-      <c r="AA268" s="34"/>
-    </row>
-    <row r="269" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z268" s="30"/>
+      <c r="AA268" s="33"/>
+    </row>
+    <row r="269" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W269" s="20"/>
       <c r="X269" s="20"/>
       <c r="Y269" s="20"/>
-      <c r="Z269" s="31"/>
-      <c r="AA269" s="34"/>
-    </row>
-    <row r="270" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z269" s="30"/>
+      <c r="AA269" s="33"/>
+    </row>
+    <row r="270" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W270" s="20"/>
       <c r="X270" s="20"/>
       <c r="Y270" s="20"/>
-      <c r="Z270" s="31"/>
-      <c r="AA270" s="34"/>
-    </row>
-    <row r="271" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z270" s="30"/>
+      <c r="AA270" s="33"/>
+    </row>
+    <row r="271" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W271" s="20"/>
       <c r="X271" s="20"/>
       <c r="Y271" s="20"/>
-      <c r="Z271" s="31"/>
-      <c r="AA271" s="34"/>
-    </row>
-    <row r="272" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z271" s="30"/>
+      <c r="AA271" s="33"/>
+    </row>
+    <row r="272" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W272" s="20"/>
       <c r="X272" s="20"/>
       <c r="Y272" s="20"/>
-      <c r="Z272" s="31"/>
-      <c r="AA272" s="34"/>
-    </row>
-    <row r="273" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z272" s="30"/>
+      <c r="AA272" s="33"/>
+    </row>
+    <row r="273" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W273" s="20"/>
       <c r="X273" s="20"/>
       <c r="Y273" s="20"/>
-      <c r="Z273" s="31"/>
-      <c r="AA273" s="34"/>
-    </row>
-    <row r="274" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z273" s="30"/>
+      <c r="AA273" s="33"/>
+    </row>
+    <row r="274" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W274" s="20"/>
       <c r="X274" s="20"/>
       <c r="Y274" s="20"/>
-      <c r="Z274" s="31"/>
-      <c r="AA274" s="34"/>
-    </row>
-    <row r="275" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z274" s="30"/>
+      <c r="AA274" s="33"/>
+    </row>
+    <row r="275" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W275" s="20"/>
       <c r="X275" s="20"/>
       <c r="Y275" s="20"/>
-      <c r="Z275" s="31"/>
-      <c r="AA275" s="34"/>
-    </row>
-    <row r="276" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z275" s="30"/>
+      <c r="AA275" s="33"/>
+    </row>
+    <row r="276" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W276" s="20"/>
       <c r="X276" s="20"/>
       <c r="Y276" s="20"/>
-      <c r="Z276" s="31"/>
-      <c r="AA276" s="34"/>
-    </row>
-    <row r="277" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z276" s="30"/>
+      <c r="AA276" s="33"/>
+    </row>
+    <row r="277" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W277" s="20"/>
       <c r="X277" s="20"/>
       <c r="Y277" s="20"/>
-      <c r="Z277" s="31"/>
-      <c r="AA277" s="34"/>
-    </row>
-    <row r="278" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="Z277" s="30"/>
+      <c r="AA277" s="33"/>
+    </row>
+    <row r="278" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W278" s="20"/>
       <c r="X278" s="20"/>
       <c r="Y278" s="20"/>
-      <c r="Z278" s="31"/>
-      <c r="AA278" s="34"/>
-    </row>
-    <row r="279" spans="23:27" x14ac:dyDescent="0.2">
-      <c r="W279" s="56"/>
-      <c r="X279" s="56"/>
-      <c r="Y279" s="56"/>
-      <c r="Z279" s="57"/>
-      <c r="AA279" s="41"/>
+      <c r="Z278" s="30"/>
+      <c r="AA278" s="33"/>
+    </row>
+    <row r="279" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W279" s="55"/>
+      <c r="X279" s="55"/>
+      <c r="Y279" s="55"/>
+      <c r="Z279" s="56"/>
+      <c r="AA279" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="K5:M5"/>
+  <mergeCells count="48">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="I20:M20"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="L10:M10"/>
@@ -7620,11 +7622,34 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="I21:M21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA183" r:id="rId1" display="tel:+84 90 3732312"/>
@@ -7642,7 +7667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7654,7 +7679,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
